--- a/spread_sheets/dpi_culc.xlsx
+++ b/spread_sheets/dpi_culc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C5855-14C1-4E4F-860F-E94B17B1B3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA1DC6-E06D-412D-A39E-FCC4F036AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="-13470" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像解像度計算" sheetId="1" r:id="rId1"/>
@@ -61,11 +61,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -189,16 +191,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -420,33 +422,34 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1">
         <v>300</v>
       </c>
@@ -462,27 +465,27 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C6" si="0">$B3/25.4*96</f>
-        <v>136.06299212598427</v>
+        <v>37.795275590551185</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:G3" si="1">$B3/25.4*D$2</f>
-        <v>425.19685039370086</v>
+        <v>118.11023622047244</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="1"/>
-        <v>496.06299212598429</v>
+        <v>137.7952755905512</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="1"/>
-        <v>283.46456692913387</v>
+        <v>78.740157480314963</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="1"/>
-        <v>136.06299212598427</v>
+        <v>37.795275590551185</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
